--- a/xlsx/弗雷德里克·温斯洛·泰勒_intext.xlsx
+++ b/xlsx/弗雷德里克·温斯洛·泰勒_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>賓夕法尼亞州</t>
+    <t>宾夕法尼亚州</t>
   </si>
   <si>
     <t>政策_政策_管理_弗雷德里克·温斯洛·泰勒</t>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%9F%8E</t>
   </si>
   <si>
-    <t>費城</t>
+    <t>费城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%BA%E7%82%8E</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E6%A2%B0%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>機械工程</t>
+    <t>机械工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%8B%92%E5%88%B6</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E6%A0%BC%E6%9C%83</t>
   </si>
   <si>
-    <t>貴格會</t>
+    <t>贵格会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%88</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B6%B2%E7%90%83%E5%85%AC%E9%96%8B%E8%B3%BD</t>
   </si>
   <si>
-    <t>美國網球公開賽</t>
+    <t>美国网球公开赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E6%96%87%E6%96%AF%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>史蒂文斯理工學院</t>
+    <t>史蒂文斯理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E7%AE%A1%E7%90%86</t>
@@ -125,19 +125,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>賓夕法尼亞大學</t>
+    <t>宾夕法尼亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%A7%91%E5%AD%B8%E5%8D%9A%E5%A3%AB</t>
   </si>
   <si>
-    <t>自然科學博士</t>
+    <t>自然科学博士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E7%89%B9%E8%8C%85%E6%96%AF%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>達特茅斯學院</t>
+    <t>达特茅斯学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%85%8B%E5%95%86%E5%AD%A6%E9%99%A2</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A2%BC%E9%8C%B6%E6%99%82%E9%96%93%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>碼錶時間研究</t>
+    <t>码表时间研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Miami_University</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -239,13 +239,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
